--- a/biology/Botanique/Rubus_dissimulans/Rubus_dissimulans.xlsx
+++ b/biology/Botanique/Rubus_dissimulans/Rubus_dissimulans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubus dissimulans est une espèce de plantes à fleurs de la famille des rosacées du genre Rubus, du sous genre rubus et de la section corylifolii.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubus dissimulans a des turions, glabres, de couleur verdâtre. Cette ronce comporte de fin aiguillions de 4 à 5 millimètres de la même couleur que ces turions. Il possède des feuilles pédalées (qui qualifie une feuille à plusieurs segments, le médian étant libre et les latéraux s'insérant chacun sur celui qui le précède) de quatre à cinq folioles. Le foliole terminale, de dix a quinze centimètre de long, a un apex nettement distinct. La face supérieure des feuilles, est couverte de poils (20 à 60 /cm2), la face inférieure est aussi pubescente, mes ces poils ne sont pas perceptibles au toucher.
 Les fleurs sont blanches a rose pâle. Les pétales sont ovales et mesure de huit à onze centimètre.
@@ -543,7 +557,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre cette ronce de façon éparse à fréquente dans les haies, les fourrés, sur sols généralement pauvre et sableux.
 Elle est présente en Norvège, en Suède, au Danemark et en Allemagne (Schleswig-Holstein, Basse-Saxe, Westphalie).
